--- a/arts/arts/SCENE_2017-9-5创关第一版/创关场景资源需求.xlsx
+++ b/arts/arts/SCENE_2017-9-5创关第一版/创关场景资源需求.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,8 +45,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>尺寸:1024x256
-说明：目前尺寸为1204x108,其中宽度1204会导致图片无法使用硬件压缩为PVR，ECT格式，高度108太短，会导致游戏在方屏时（高度占比较大）下面部分无内容显示</t>
+    <t xml:space="preserve">    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">尺寸:1024x256
+说明：目前尺寸为1204x108,其中宽度1204会导致图片无法使用硬件压缩为PVR，ECT格式，高度108太短，会导致游戏在方屏时（高度占比较大）下面部分无内容显示
+强调：地表图片，上半部分所有分辨率都会显示，需要更多细节。下面部分只有部分分辨率才会显示，可以减少细节。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸：1024x768</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,12 +125,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -140,15 +166,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>809625</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1085850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1805165</xdr:colOff>
+      <xdr:colOff>2614790</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>1247775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -171,8 +197,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="190500"/>
+          <a:off x="2181225" y="1276350"/>
           <a:ext cx="1805165" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>695326</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>619126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3743326</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1381126</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6553201" y="809626"/>
+          <a:ext cx="3048000" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -447,17 +517,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="24.125" customWidth="1"/>
+    <col min="3" max="3" width="43.875" customWidth="1"/>
     <col min="4" max="4" width="34.75" customWidth="1"/>
-    <col min="5" max="5" width="35.25" customWidth="1"/>
+    <col min="5" max="5" width="54.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -477,24 +547,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -588,98 +664,101 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>

--- a/arts/arts/SCENE_2017-9-5创关第一版/创关场景资源需求.xlsx
+++ b/arts/arts/SCENE_2017-9-5创关第一版/创关场景资源需求.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +61,10 @@
   </si>
   <si>
     <t>尺寸：1024x768</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏内目前经过缩放。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -125,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -143,6 +147,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -243,6 +250,50 @@
         <a:xfrm>
           <a:off x="6553201" y="809626"/>
           <a:ext cx="3048000" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1171577</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2781301</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1397793</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534402" y="2667000"/>
+          <a:ext cx="1609724" cy="1207293"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -520,7 +571,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -560,15 +611,17 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="126.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="2"/>
